--- a/medicine/Pharmacie/Jean-Baptiste_Fonssagrives/Jean-Baptiste_Fonssagrives.xlsx
+++ b/medicine/Pharmacie/Jean-Baptiste_Fonssagrives/Jean-Baptiste_Fonssagrives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Fonssagrives (Limoges, 12 mars 1823 - Kergurioné, 21 novembre 1884), est un médecin de marine français. 
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un employé des Contributions directes, il devient chirurgien de 3e classe en décembre 1841 à Rochefort et participe l'année suivante à une campagne en Méditerranée sur l' Asmodée. Nommé chirurgien de 2e classe en juin 1845, il sert sur l' Abeille à la station des côtes occidentales d'Afrique puis, à partir de janvier 1848, à Brest. 
 Chirurgien de 1re classe (décembre 1849), il est sur l' Eldorado en février 1850 puis devient directeur du service de santé de la division des côtes occidentales d'Afrique. 
 En 1852, professeur à l’École de médecine de Brest, il est reçu docteur en médecine et est nommé en mai 1856, second médecin en chef. Il sert un temps à Cherbourg puis revient enseigner à Brest (janvier 1860) avant d'être promu médecin en chef, en août 1864. 
 Professeur d'hygiène à la faculté de Montpellier, il prend sa retraite en décembre 1866. Son Traité d'hygiène navale fit longtemps autorité.
-Il est également l'un des premiers à utiliser le terme féminisme. Cependant il l'utilise dans un sens qui n'a pas eu de postérité. Sous sa plume cela lui permet de noter que dans la jeune fille, les caractères féminins sont déjà présents[1].
-Il est à ne pas confondre avec son fils Jean-Baptiste Fonssagrives (1862-1910), gouverneur colonial du Dahomey de 1899 à 1900[2].
-Il était l'arrière-grand-père du photographe français Fernand Fonssagrives[3].
+Il est également l'un des premiers à utiliser le terme féminisme. Cependant il l'utilise dans un sens qui n'a pas eu de postérité. Sous sa plume cela lui permet de noter que dans la jeune fille, les caractères féminins sont déjà présents.
+Il est à ne pas confondre avec son fils Jean-Baptiste Fonssagrives (1862-1910), gouverneur colonial du Dahomey de 1899 à 1900.
+Il était l'arrière-grand-père du photographe français Fernand Fonssagrives.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit de nombreux articles publiés, entre autres, dans la Gazette hebdomadaire de médecine et de chirurgie ainsi que :
 Traité d'hygiène navale, ou De l'influence des conditions physiques et morales dans lesquelles l'homme de mer est appelé à vivre et des moyens de conserver sa santé, J.-B. Baillière, 1856
@@ -597,7 +613,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevalier (12 août 1857) puis officier de la Légion d'honneur (31 décembre 1862).</t>
         </is>
